--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Anpep-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Anpep-Sele.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.710646666666667</v>
+        <v>1.907957333333333</v>
       </c>
       <c r="H2">
-        <v>29.13194</v>
+        <v>5.723871999999999</v>
       </c>
       <c r="I2">
-        <v>0.1041051736296835</v>
+        <v>0.02117870709996734</v>
       </c>
       <c r="J2">
-        <v>0.1041051736296835</v>
+        <v>0.02117870709996734</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,10 +552,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.321929333333332</v>
+        <v>0.5273163333333333</v>
       </c>
       <c r="N2">
-        <v>21.965788</v>
+        <v>1.581949</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>71.10066867430221</v>
+        <v>1.006097065169778</v>
       </c>
       <c r="R2">
-        <v>639.9060180687198</v>
+        <v>9.054873586527998</v>
       </c>
       <c r="S2">
-        <v>0.1041051736296835</v>
+        <v>0.02117870709996734</v>
       </c>
       <c r="T2">
-        <v>0.1041051736296835</v>
+        <v>0.02117870709996734</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>233.166916</v>
       </c>
       <c r="I3">
-        <v>0.8332394710025435</v>
+        <v>0.8627330973450646</v>
       </c>
       <c r="J3">
-        <v>0.8332394710025435</v>
+        <v>0.8627330973450646</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,10 +614,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.321929333333332</v>
+        <v>0.5273163333333333</v>
       </c>
       <c r="N3">
-        <v>21.965788</v>
+        <v>1.581949</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>569.0772272744231</v>
+        <v>40.98424106658711</v>
       </c>
       <c r="R3">
-        <v>5121.695045469807</v>
+        <v>368.858169599284</v>
       </c>
       <c r="S3">
-        <v>0.8332394710025435</v>
+        <v>0.8627330973450646</v>
       </c>
       <c r="T3">
-        <v>0.8332394710025435</v>
+        <v>0.8627330973450646</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.844320666666666</v>
+        <v>10.458208</v>
       </c>
       <c r="H4">
-        <v>17.532962</v>
+        <v>31.374624</v>
       </c>
       <c r="I4">
-        <v>0.06265535536777307</v>
+        <v>0.116088195554968</v>
       </c>
       <c r="J4">
-        <v>0.06265535536777307</v>
+        <v>0.116088195554968</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,10 +676,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.321929333333332</v>
+        <v>0.5273163333333333</v>
       </c>
       <c r="N4">
-        <v>21.965788</v>
+        <v>1.581949</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>42.79170292267288</v>
+        <v>5.514783895797333</v>
       </c>
       <c r="R4">
-        <v>385.1253263040559</v>
+        <v>49.633055062176</v>
       </c>
       <c r="S4">
-        <v>0.06265535536777307</v>
+        <v>0.116088195554968</v>
       </c>
       <c r="T4">
-        <v>0.06265535536777307</v>
+        <v>0.116088195554968</v>
       </c>
     </row>
   </sheetData>
